--- a/Test_Case/TestCase.xlsx
+++ b/Test_Case/TestCase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\PycharmProjects\softwareqaclass\test_case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\PycharmProjects\QA_Assignment\Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E03DEE-7001-4ABD-8437-AB98121F2F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6A8D26-44AD-4548-9C9E-EE2830679E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B41E945-C850-E047-A3E6-AC52CFB8417E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>SN</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>//input[@name='text-765']</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/</t>
   </si>
 </sst>
 </file>
@@ -569,7 +566,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -634,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -866,14 +863,12 @@
       <c r="F15" s="1"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F18" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" xr:uid="{0B3397C3-8708-425B-AA6D-8EA5E09248ED}"/>
-    <hyperlink ref="F18" r:id="rId2" xr:uid="{CC7E9BDB-A461-4BBA-8621-4F5389CDC838}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{2F618AB6-78C9-437C-BC98-52B4B8BF741E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Test_Case/TestCase.xlsx
+++ b/Test_Case/TestCase.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\PycharmProjects\QA_Assignment\Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6A8D26-44AD-4548-9C9E-EE2830679E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97566FA-9EDE-49B9-87CC-59F44806F551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B41E945-C850-E047-A3E6-AC52CFB8417E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A02AE25C-5D7B-4BAB-88FA-90A82273FE53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="141">
   <si>
     <t>SN</t>
   </si>
@@ -55,127 +55,413 @@
     <t>open_browser</t>
   </si>
   <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>open_url</t>
+  </si>
+  <si>
     <t>Open URL</t>
   </si>
   <si>
-    <t>open_url</t>
-  </si>
-  <si>
-    <t>https://keystoneglobalnetwork.com/</t>
-  </si>
-  <si>
-    <t>Click on Apply Now</t>
-  </si>
-  <si>
-    <t>//button[@id="bubble"]</t>
+    <t>https://www.webmd.com/</t>
+  </si>
+  <si>
+    <t>Click On SIGN IN</t>
   </si>
   <si>
     <t>click</t>
   </si>
   <si>
-    <t>Verify Intrested text</t>
-  </si>
-  <si>
-    <t>//h3[contains(text(),'Interested in studying abroad with us?')]</t>
+    <t>send_value</t>
+  </si>
+  <si>
+    <t>jeevanpaudel77@gmail.com</t>
+  </si>
+  <si>
+    <t>Input Valid Password</t>
+  </si>
+  <si>
+    <t>Click On My Profile</t>
+  </si>
+  <si>
+    <t>Click On My Account</t>
+  </si>
+  <si>
+    <t>Click On Edit</t>
+  </si>
+  <si>
+    <t>Input First Name</t>
+  </si>
+  <si>
+    <t>Input Last Name</t>
+  </si>
+  <si>
+    <t>Input Birth Date</t>
+  </si>
+  <si>
+    <t>Select Gender Dropdown</t>
+  </si>
+  <si>
+    <t>Input Zip Code</t>
+  </si>
+  <si>
+    <t>Input Phone Number</t>
+  </si>
+  <si>
+    <t>Input Phone Type</t>
+  </si>
+  <si>
+    <t>Cell Phone</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Paudel</t>
+  </si>
+  <si>
+    <t>Jeevan</t>
+  </si>
+  <si>
+    <t>Click On Save Button</t>
+  </si>
+  <si>
+    <t>Input Text On Search Field</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Hover On DRUGS &amp; SUPPLEMENTS</t>
+  </si>
+  <si>
+    <t>Hover On HEALTH A-Z</t>
+  </si>
+  <si>
+    <t>Hover On LIVING HEALTHY</t>
+  </si>
+  <si>
+    <t>Hover On FAMILY &amp; PREGNANCY</t>
+  </si>
+  <si>
+    <t>Hover On NEWS &amp; EXPERTS</t>
+  </si>
+  <si>
+    <t>Click On Search Icon</t>
+  </si>
+  <si>
+    <t>Click On Mobile Baby App</t>
+  </si>
+  <si>
+    <t>Click On Policies</t>
+  </si>
+  <si>
+    <t>Click On Registration</t>
+  </si>
+  <si>
+    <t>Click On WebMD Lab Testing</t>
+  </si>
+  <si>
+    <t>Click On WebMD Magazine</t>
+  </si>
+  <si>
+    <t>Click On Contact Us Button</t>
+  </si>
+  <si>
+    <t>Select WebMD Customer Care Dropdown</t>
+  </si>
+  <si>
+    <t>Input email</t>
+  </si>
+  <si>
+    <t>Input Subject</t>
+  </si>
+  <si>
+    <t>Input Comments</t>
+  </si>
+  <si>
+    <t>Click On WebMD Icon</t>
+  </si>
+  <si>
+    <t>Click On Submit Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click On Add file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click On My Profile </t>
+  </si>
+  <si>
+    <t>Click On Sign Out</t>
+  </si>
+  <si>
+    <t>Close Browser</t>
+  </si>
+  <si>
+    <t>close_browser</t>
+  </si>
+  <si>
+    <t>Input Invalid Username</t>
+  </si>
+  <si>
+    <t>Input Valid Username</t>
+  </si>
+  <si>
+    <t>Input Invalid Password</t>
+  </si>
+  <si>
+    <t>//a[@data-metrics-link="reg-login"]</t>
+  </si>
+  <si>
+    <t>//span[@class="global-nav-profile-text"]</t>
+  </si>
+  <si>
+    <t>//a[text()='My Account']</t>
+  </si>
+  <si>
+    <t>//input[@id="ctl00_ContentWell_txtFirstName"]</t>
+  </si>
+  <si>
+    <t>//a[@id="pi_action"]</t>
+  </si>
+  <si>
+    <t>//input[@id="ctl00_ContentWell_txtLastName"]</t>
+  </si>
+  <si>
+    <t>//input[@id="ctl00_ContentWell_txtBirthDate"]</t>
+  </si>
+  <si>
+    <t>//select[@id="ctl00_ContentWell_ddlGender"]</t>
+  </si>
+  <si>
+    <t>//input[@id="ctl00_ContentWell_txtZipCode"]</t>
+  </si>
+  <si>
+    <t>//input[@id="ctl00_ContentWell_txtPhoneNumber"]</t>
+  </si>
+  <si>
+    <t>//select[@id="ctl00_ContentWell_ddlPhoneType"]</t>
+  </si>
+  <si>
+    <t>//a[@onclick="return savePersonalInformation();"]</t>
+  </si>
+  <si>
+    <t>//li[@data-metrics-module="hicb1"]</t>
+  </si>
+  <si>
+    <t>//li[@data-metrics-module="hicb2"]</t>
+  </si>
+  <si>
+    <t>//li[@data-metrics-module="hicb3"]</t>
+  </si>
+  <si>
+    <t>//li[@data-metrics-module="hicb4"]</t>
+  </si>
+  <si>
+    <t>//li[@data-metrics-module="hicb5"]</t>
+  </si>
+  <si>
+    <t>//li[@data-id="360000380472"]</t>
+  </si>
+  <si>
+    <t>//li[@data-id="360000380492"]</t>
+  </si>
+  <si>
+    <t>//li[@data-id="360000382791"]</t>
+  </si>
+  <si>
+    <t>//li[@data-id="360000929991"]</t>
+  </si>
+  <si>
+    <t>//li[@data-id="360000380532"]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div</t>
+  </si>
+  <si>
+    <t>//a[@class="nesty-input"]</t>
+  </si>
+  <si>
+    <t>WebMD Customer Care</t>
+  </si>
+  <si>
+    <t>//input[@id="request_anonymous_requester_email"]</t>
+  </si>
+  <si>
+    <t>request_custom_fields_360003451471</t>
+  </si>
+  <si>
+    <t>request_custom_fields_360003428132</t>
+  </si>
+  <si>
+    <t>//a[@aria-controls="_bjigwtme9"]</t>
+  </si>
+  <si>
+    <t>Select Feedback Category Dropdown</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>//input[@id="request_subject"]</t>
+  </si>
+  <si>
+    <t>//textarea[@id="request_description"]</t>
+  </si>
+  <si>
+    <t>//input[@id="request-attachments"]</t>
+  </si>
+  <si>
+    <t>//input[@type="submit"]</t>
+  </si>
+  <si>
+    <t>//a[@data-metrics-link="logo"]</t>
+  </si>
+  <si>
+    <t>//a[text()='Sign Out']</t>
+  </si>
+  <si>
+    <t>W8a3S4Fg7@$QmrL</t>
+  </si>
+  <si>
+    <t>//input[@name="password"]</t>
+  </si>
+  <si>
+    <t>//input[@class="form_submit btn"]</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>This is dummy text for testing purpose.</t>
+  </si>
+  <si>
+    <t>jeevan@gmail.com</t>
+  </si>
+  <si>
+    <t>InvalidPassword</t>
+  </si>
+  <si>
+    <t>jeevanpaudel@gmail.com</t>
+  </si>
+  <si>
+    <t>hellojeevan11@gmail.com</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>HEALTH</t>
+  </si>
+  <si>
+    <t>DRUGS &amp;</t>
+  </si>
+  <si>
+    <t>FAMILY &amp;</t>
+  </si>
+  <si>
+    <t>NEWS &amp;</t>
+  </si>
+  <si>
+    <t>LIVING</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Mobile Baby</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>//input[@name="user_name"]</t>
+  </si>
+  <si>
+    <t>Input Blank Username</t>
+  </si>
+  <si>
+    <t>Input Blank Password</t>
+  </si>
+  <si>
+    <t>Click On Sign In Button</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>//input[@name="query"]</t>
+  </si>
+  <si>
+    <t>//button[@class="masthead-search-submit"]</t>
+  </si>
+  <si>
+    <t>Click On Contact US Link</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/a</t>
+  </si>
+  <si>
+    <t>//*[@id="ContentPane55"]/nav/ul/li[2]/ul[2]/li[1]/a</t>
+  </si>
+  <si>
+    <t>//input[@id="request_custom_fields_360003451471"]</t>
+  </si>
+  <si>
+    <t>//input[@id="request_custom_fields_360003428132"]</t>
+  </si>
+  <si>
+    <t>//*[@id="request_anonymous_requester_email"]</t>
+  </si>
+  <si>
+    <t>Click On Drop Down</t>
+  </si>
+  <si>
+    <t>/html/body/main/div/div/form/div/a</t>
+  </si>
+  <si>
+    <t>https://customercare.webmd.com/hc/en-us/requests/new?ticket_form_id=114094016951</t>
+  </si>
+  <si>
+    <t>Select Advertising Category Dropdown</t>
   </si>
   <si>
     <t>verify_text</t>
   </si>
   <si>
-    <t>Input Full Name</t>
-  </si>
-  <si>
-    <t>send_value</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>Input Email</t>
-  </si>
-  <si>
-    <t>Input Contact Us</t>
-  </si>
-  <si>
-    <t>Select Destination Dropdown</t>
+    <t>Verify Submit Result</t>
+  </si>
+  <si>
+    <t>Your request was successfully submitted.</t>
   </si>
   <si>
     <t>select_dropdown</t>
   </si>
   <si>
-    <t>Select Subject Dropdown</t>
-  </si>
-  <si>
-    <t>Verify Submit Result</t>
-  </si>
-  <si>
-    <t>Thank you for your message. It has been sent.</t>
-  </si>
-  <si>
-    <t>Close Browser</t>
-  </si>
-  <si>
-    <t>close_browser</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Click on Something</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>kamal@gmail.com</t>
-  </si>
-  <si>
-    <t>Click on Submit Button</t>
-  </si>
-  <si>
-    <t>Interested in studying abroad with us?</t>
-  </si>
-  <si>
-    <t>Kamal Pokharel</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>//div[@class="wpcf7-response-output"]</t>
-  </si>
-  <si>
-    <t>//input[@value='Submit']</t>
-  </si>
-  <si>
-    <t>//select[@name='menu-105']</t>
-  </si>
-  <si>
-    <t>//select[@name='menu-104']</t>
-  </si>
-  <si>
-    <t>//input[@name='text-631']</t>
-  </si>
-  <si>
-    <t>//input[@name='email-931']</t>
-  </si>
-  <si>
-    <t>//input[@name='text-765']</t>
+    <t>//a[@aria-labelledby="request_custom_fields_360001582051_label"]</t>
+  </si>
+  <si>
+    <t>//strong[text()='Your request was successfully submitted.']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="00000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -183,7 +469,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -191,7 +477,7 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -207,7 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,12 +526,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -562,327 +858,1737 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0B2668-760A-5F4F-920D-2CB640C87719}">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A397D5-F65C-4E48-8B8A-8961091FF839}">
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.296875" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="39.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7">
+        <v>32874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="8">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4">
+        <v>9849935243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="F31" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4">
+      <c r="D35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="2"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" xr:uid="{0B3397C3-8708-425B-AA6D-8EA5E09248ED}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{2F618AB6-78C9-437C-BC98-52B4B8BF741E}"/>
+    <hyperlink ref="F33" r:id="rId1" xr:uid="{8E8B4D18-86EF-479D-AB48-38A25672585D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A54E19E-743D-7F42-AE9D-A447DC0435DD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9E2CDE-3A39-46C6-BDBD-E9C51EAA1812}">
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>36</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>41</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>42</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>44</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F33" r:id="rId1" xr:uid="{51E43E8F-B77C-48FD-9A69-3BC3C4845813}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test_Case/TestCase.xlsx
+++ b/Test_Case/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\PycharmProjects\QA_Assignment\Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97566FA-9EDE-49B9-87CC-59F44806F551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBEB676-7FDB-449A-B363-11DDF01E4AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A02AE25C-5D7B-4BAB-88FA-90A82273FE53}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="149">
   <si>
     <t>SN</t>
   </si>
@@ -449,6 +449,30 @@
   </si>
   <si>
     <t>//strong[text()='Your request was successfully submitted.']</t>
+  </si>
+  <si>
+    <t>WebMD - Better information. Better health.</t>
+  </si>
+  <si>
+    <t>verify_title</t>
+  </si>
+  <si>
+    <t>Verify Page Title</t>
+  </si>
+  <si>
+    <t>Hover Health A-Z</t>
+  </si>
+  <si>
+    <t>Hover Drugs &amp; Suppliments</t>
+  </si>
+  <si>
+    <t>Hover Living Healthy</t>
+  </si>
+  <si>
+    <t>Hover Family &amp; Pregnancy</t>
+  </si>
+  <si>
+    <t>Hover News &amp; Experts</t>
   </si>
 </sst>
 </file>
@@ -459,7 +483,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +506,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -526,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -543,6 +572,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -859,13 +891,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A397D5-F65C-4E48-8B8A-8961091FF839}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
@@ -874,7 +906,7 @@
     <col min="6" max="6" width="76.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -912,7 +944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -930,7 +962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -948,7 +980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -956,17 +988,17 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -974,37 +1006,35 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1012,19 +1042,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1032,17 +1062,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1050,17 +1082,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1068,17 +1100,17 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1086,17 +1118,17 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1104,17 +1136,17 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1122,17 +1154,17 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1140,39 +1172,37 @@
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1180,19 +1210,19 @@
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="7">
-        <v>32874</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1200,19 +1230,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="7">
+        <v>32874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1220,19 +1250,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="8">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1240,19 +1270,19 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="4">
-        <v>9849935243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="8">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1260,19 +1290,19 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="4">
+        <v>9849935243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1280,19 +1310,19 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1300,17 +1330,19 @@
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1318,19 +1350,17 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1338,17 +1368,19 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1356,17 +1388,17 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1374,17 +1406,17 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1392,17 +1424,17 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1410,17 +1442,17 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
       <c r="E29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1428,17 +1460,17 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1446,17 +1478,17 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1464,17 +1496,17 @@
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1482,19 +1514,17 @@
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1502,17 +1532,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1520,19 +1552,17 @@
         <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>128</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1540,17 +1570,19 @@
         <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="E36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1558,19 +1590,17 @@
         <v>6</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1578,17 +1608,19 @@
         <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1596,19 +1628,17 @@
         <v>6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1616,17 +1646,19 @@
         <v>6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="E40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1634,19 +1666,17 @@
         <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1654,17 +1684,19 @@
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1672,19 +1704,17 @@
         <v>6</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1692,17 +1722,19 @@
         <v>6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1710,19 +1742,17 @@
         <v>6</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1730,17 +1760,19 @@
         <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1748,17 +1780,17 @@
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1766,17 +1798,17 @@
         <v>6</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1784,19 +1816,17 @@
         <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F49" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1804,17 +1834,19 @@
         <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1822,17 +1854,17 @@
         <v>6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1840,17 +1872,17 @@
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1858,19 +1890,217 @@
         <v>6</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>46</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>46</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>46</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>55</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>46</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
         <v>56</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>46</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
         <v>57</v>
       </c>
-      <c r="F53" s="2">
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>58</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F33" r:id="rId1" xr:uid="{8E8B4D18-86EF-479D-AB48-38A25672585D}"/>
+    <hyperlink ref="F34" r:id="rId1" xr:uid="{8E8B4D18-86EF-479D-AB48-38A25672585D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1885,7 +2115,7 @@
       <selection activeCell="A32" sqref="A32:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.44140625" bestFit="1" customWidth="1"/>
@@ -1893,7 +2123,7 @@
     <col min="6" max="6" width="32.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2">
         <v>4</v>
       </c>
@@ -1913,7 +2143,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>5</v>
       </c>
@@ -1933,7 +2163,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -1951,7 +2181,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>7</v>
       </c>
@@ -1969,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>8</v>
       </c>
@@ -1989,7 +2219,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>9</v>
       </c>
@@ -2009,7 +2239,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>10</v>
       </c>
@@ -2027,7 +2257,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>11</v>
       </c>
@@ -2045,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -2065,7 +2295,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>13</v>
       </c>
@@ -2085,7 +2315,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>14</v>
       </c>
@@ -2103,7 +2333,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>15</v>
       </c>
@@ -2121,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>16</v>
       </c>
@@ -2141,7 +2371,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -2161,7 +2391,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>18</v>
       </c>
@@ -2179,7 +2409,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>19</v>
       </c>
@@ -2197,7 +2427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>8</v>
       </c>
@@ -2217,7 +2447,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>9</v>
       </c>
@@ -2237,7 +2467,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -2257,7 +2487,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>11</v>
       </c>
@@ -2277,7 +2507,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>12</v>
       </c>
@@ -2297,7 +2527,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>30</v>
       </c>
@@ -2317,7 +2547,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>31</v>
       </c>
@@ -2335,7 +2565,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>32</v>
       </c>
@@ -2353,7 +2583,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>33</v>
       </c>
@@ -2371,7 +2601,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>34</v>
       </c>
@@ -2389,7 +2619,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>35</v>
       </c>
@@ -2407,7 +2637,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>36</v>
       </c>
@@ -2427,7 +2657,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>37</v>
       </c>
@@ -2447,7 +2677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>38</v>
       </c>
@@ -2467,7 +2697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>39</v>
       </c>
@@ -2487,7 +2717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>40</v>
       </c>
@@ -2507,7 +2737,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>41</v>
       </c>
@@ -2527,7 +2757,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>42</v>
       </c>
@@ -2547,7 +2777,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>43</v>
       </c>
@@ -2567,7 +2797,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>44</v>
       </c>

--- a/Test_Case/TestCase.xlsx
+++ b/Test_Case/TestCase.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\PycharmProjects\QA_Assignment\Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBEB676-7FDB-449A-B363-11DDF01E4AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F213BB30-32A7-45F5-8735-08CFF5E9BF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A02AE25C-5D7B-4BAB-88FA-90A82273FE53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Copy of Sheet" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="150">
   <si>
     <t>SN</t>
   </si>
@@ -473,6 +474,9 @@
   </si>
   <si>
     <t>Hover News &amp; Experts</t>
+  </si>
+  <si>
+    <t>https://webmd.com/</t>
   </si>
 </sst>
 </file>
@@ -891,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A397D5-F65C-4E48-8B8A-8961091FF839}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -958,8 +962,8 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
+      <c r="F3" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1006,13 +1010,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1042,17 +1046,15 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>106</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
@@ -1062,16 +1064,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1082,13 +1082,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -1107,7 +1107,7 @@
         <v>108</v>
       </c>
       <c r="F11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1118,13 +1118,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -1136,15 +1136,15 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
@@ -1154,13 +1154,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -1172,935 +1172,19 @@
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="7">
-        <v>32874</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="8">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="4">
-        <v>9849935243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2">
-        <v>46</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="2">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="2">
-        <v>46</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F56" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="2">
-        <v>54</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2">
-        <v>46</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="2">
-        <v>55</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="2">
-        <v>46</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F60" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="2">
-        <v>56</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="2">
-        <v>46</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F62" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2">
         <v>57</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="2">
-        <v>58</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="2">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F34" r:id="rId1" xr:uid="{8E8B4D18-86EF-479D-AB48-38A25672585D}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{4B500DDD-212B-40CD-B738-2892BEEBDBCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2108,10 +1192,1034 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0946EA59-F809-41E6-AE62-0913690DCC03}">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="7">
+        <v>32874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="8">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
+        <v>9849935243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E34" r:id="rId1" xr:uid="{A2EFF51F-D49D-4DD8-A88B-E1A684CC5131}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9E2CDE-3A39-46C6-BDBD-E9C51EAA1812}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:XFD40"/>
     </sheetView>
   </sheetViews>

--- a/Test_Case/TestCase.xlsx
+++ b/Test_Case/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\PycharmProjects\QA_Assignment\Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F213BB30-32A7-45F5-8735-08CFF5E9BF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB371CC-F1D3-4B7E-BB14-3AC9F64AE0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A02AE25C-5D7B-4BAB-88FA-90A82273FE53}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="152">
   <si>
     <t>SN</t>
   </si>
@@ -477,6 +477,12 @@
   </si>
   <si>
     <t>https://webmd.com/</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Something</t>
   </si>
 </sst>
 </file>
@@ -895,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A397D5-F65C-4E48-8B8A-8961091FF839}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1169,16 +1175,30 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Test_Case/TestCase.xlsx
+++ b/Test_Case/TestCase.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\PycharmProjects\QA_Assignment\Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB371CC-F1D3-4B7E-BB14-3AC9F64AE0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3F4FC1-73BB-448A-8228-DAF402D6B7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A02AE25C-5D7B-4BAB-88FA-90A82273FE53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="2" r:id="rId1"/>
-    <sheet name="Copy of Sheet" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="152">
   <si>
     <t>SN</t>
   </si>
@@ -900,11 +900,1227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A397D5-F65C-4E48-8B8A-8961091FF839}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0946EA59-F809-41E6-AE62-0913690DCC03}">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7">
+        <v>32874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4">
+        <v>9849935243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F34" r:id="rId1" xr:uid="{A2EFF51F-D49D-4DD8-A88B-E1A684CC5131}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5361D58-1728-41A3-9DFF-7062D57EAF6F}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1204,1032 +2420,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{4B500DDD-212B-40CD-B738-2892BEEBDBCC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0946EA59-F809-41E6-AE62-0913690DCC03}">
-  <dimension ref="A1:E64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="7">
-        <v>32874</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="8">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="4">
-        <v>9849935243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E56" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E62" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E34" r:id="rId1" xr:uid="{A2EFF51F-D49D-4DD8-A88B-E1A684CC5131}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{5240626A-B26E-4B2D-A2FB-6F0C447B2DEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test_Case/TestCase.xlsx
+++ b/Test_Case/TestCase.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\PycharmProjects\QA_Assignment\Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3F4FC1-73BB-448A-8228-DAF402D6B7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68256CC6-CE60-406B-A14E-BF5D398F5625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A02AE25C-5D7B-4BAB-88FA-90A82273FE53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="8" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet-main" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="153">
   <si>
     <t>SN</t>
   </si>
@@ -483,6 +484,9 @@
   </si>
   <si>
     <t>Something</t>
+  </si>
+  <si>
+    <t>WebMD - Better informatio. Better health.</t>
   </si>
 </sst>
 </file>
@@ -900,10 +904,488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242EEC55-36AB-47E0-859F-7C180BA950C5}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{15BD4CCD-EF8D-4CE7-9E7A-084D1393A2CF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5361D58-1728-41A3-9DFF-7062D57EAF6F}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{5240626A-B26E-4B2D-A2FB-6F0C447B2DEE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0946EA59-F809-41E6-AE62-0913690DCC03}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
@@ -2115,318 +2597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5361D58-1728-41A3-9DFF-7062D57EAF6F}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{5240626A-B26E-4B2D-A2FB-6F0C447B2DEE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9E2CDE-3A39-46C6-BDBD-E9C51EAA1812}">
   <dimension ref="A1:F40"/>
   <sheetViews>

--- a/Test_Case/TestCase.xlsx
+++ b/Test_Case/TestCase.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\PycharmProjects\QA_Assignment\Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68256CC6-CE60-406B-A14E-BF5D398F5625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B213CDE8-63AC-494B-9C14-DE1862B4BD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A02AE25C-5D7B-4BAB-88FA-90A82273FE53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="8" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet-main" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet-test" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -904,10 +904,1226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0946EA59-F809-41E6-AE62-0913690DCC03}">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7">
+        <v>32874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4">
+        <v>9849935243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F34" r:id="rId1" xr:uid="{A2EFF51F-D49D-4DD8-A88B-E1A684CC5131}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242EEC55-36AB-47E0-859F-7C180BA950C5}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1070,7 +2286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5361D58-1728-41A3-9DFF-7062D57EAF6F}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -1376,1222 +2592,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{5240626A-B26E-4B2D-A2FB-6F0C447B2DEE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0946EA59-F809-41E6-AE62-0913690DCC03}">
-  <dimension ref="A1:F64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="7">
-        <v>32874</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="8">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="4">
-        <v>9849935243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F56" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F60" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F62" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F34" r:id="rId1" xr:uid="{A2EFF51F-D49D-4DD8-A88B-E1A684CC5131}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test_Case/TestCase.xlsx
+++ b/Test_Case/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\PycharmProjects\QA_Assignment\Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B213CDE8-63AC-494B-9C14-DE1862B4BD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCE4E57-DA89-4F88-9596-004AA029C234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A02AE25C-5D7B-4BAB-88FA-90A82273FE53}"/>
   </bookViews>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0946EA59-F809-41E6-AE62-0913690DCC03}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -998,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>143</v>
@@ -1732,7 +1732,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>50</v>
@@ -2124,7 +2124,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Test_Case/TestCase.xlsx
+++ b/Test_Case/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\PycharmProjects\QA_Assignment\Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB43063-B350-4AE3-B839-0474AC9AC42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A086BBEC-4074-43A9-95DA-04A2557E72B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A02AE25C-5D7B-4BAB-88FA-90A82273FE53}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="118">
   <si>
     <t>SN</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>Firefox</t>
+  </si>
+  <si>
+    <t>//img[@class="global-footer-logo"]</t>
   </si>
 </sst>
 </file>
@@ -811,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0946EA59-F809-41E6-AE62-0913690DCC03}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2986,7 +2989,7 @@
         <v>40</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>14</v>
